--- a/utilities/Excel_Sheets/Products/NGP_RTS.xlsx
+++ b/utilities/Excel_Sheets/Products/NGP_RTS.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10575"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test_Cases" sheetId="1" r:id="rId1"/>
@@ -266,7 +266,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -661,13 +661,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N119"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -742,7 +742,8 @@
         <v>1</v>
       </c>
       <c r="C2" s="6">
-        <v>43004</v>
+        <f ca="1">TODAY()</f>
+        <v>43214</v>
       </c>
       <c r="D2" s="4">
         <v>0</v>
@@ -4101,14 +4102,14 @@
       <c r="N119"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N119"/>
+  <autoFilter ref="A1:N119" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N107"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
@@ -7278,7 +7279,7 @@
       <c r="N107"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N107"/>
+  <autoFilter ref="A1:N107" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
